--- a/Python/54BND_svm.xlsx
+++ b/Python/54BND_svm.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDE1864-7A3A-478A-A755-B69FE1A03E3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D2463-6C13-4E2D-AC56-09EFDA222549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0,01" sheetId="1" r:id="rId1"/>
-    <sheet name="0,001" sheetId="2" r:id="rId2"/>
+    <sheet name="54BND" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>rbf</t>
   </si>
@@ -35,13 +34,19 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>std_dev</t>
+    <t>sensibility</t>
+  </si>
+  <si>
+    <t>specificity</t>
   </si>
   <si>
     <t>0,001</t>
   </si>
   <si>
     <t>0,01</t>
+  </si>
+  <si>
+    <t>0,05</t>
   </si>
 </sst>
 </file>
@@ -447,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,21 +479,35 @@
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -510,8 +529,17 @@
       <c r="G3">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -533,8 +561,17 @@
       <c r="G4">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -556,8 +593,17 @@
       <c r="G5">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -579,8 +625,17 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -602,8 +657,17 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J7">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -625,8 +689,17 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J8">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -648,8 +721,17 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J9">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -671,8 +753,17 @@
       <c r="G10">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -694,8 +785,17 @@
       <c r="G11">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I11">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J11">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -717,8 +817,17 @@
       <c r="G12">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J12">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -740,8 +849,17 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I13">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J13">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -763,8 +881,17 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J14">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -786,8 +913,17 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -809,8 +945,17 @@
       <c r="G16">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I16">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J16">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -832,8 +977,17 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -855,8 +1009,17 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -878,8 +1041,17 @@
       <c r="G19">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -901,8 +1073,17 @@
       <c r="G20">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -924,8 +1105,17 @@
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -947,70 +1137,118 @@
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B23">
-        <v>0.73333333333333328</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C23">
-        <v>0.65833333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D23">
-        <v>0.71666666666666656</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="E23">
-        <v>0.75</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="F23">
-        <v>0.67500000000000004</v>
+        <v>0.68518518518518523</v>
       </c>
       <c r="G23">
-        <v>0.73333333333333328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="H23">
+        <v>0.42592592592592587</v>
+      </c>
+      <c r="I23">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J23">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B24">
-        <v>0.28577380332470409</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C24">
-        <v>0.2762597409041796</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D24">
-        <v>0.27938424357067021</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="E24">
-        <v>0.29107081994288297</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="F24">
-        <v>0.26601482832520612</v>
+        <v>0.75</v>
       </c>
       <c r="G24">
-        <v>0.30459444804161778</v>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="H24">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="I24">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="J24">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="C25">
+        <v>0.53846153846153844</v>
+      </c>
+      <c r="D25">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E25">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="F25">
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="G25">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>3.8461538461538457E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Python/54BND_svm.xlsx
+++ b/Python/54BND_svm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683D2463-6C13-4E2D-AC56-09EFDA222549}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6DC3B4-DEB1-4BD2-B4E9-BC2ABC0D77C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -114,6 +114,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -129,6 +133,1042 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'54BND'!$O$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.001</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'54BND'!$P$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'54BND'!$P$10:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7407407407407407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72222222222222221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2643-4D0D-AD22-482342F8B053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'54BND'!$O$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'54BND'!$P$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'54BND'!$P$11:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.7592592592592593</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68518518518518523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7407407407407407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2643-4D0D-AD22-482342F8B053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'54BND'!$O$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'54BND'!$P$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'54BND'!$P$12:$R$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.42592592592592587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2643-4D0D-AD22-482342F8B053}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2007374544"/>
+        <c:axId val="81823520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2007374544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81823520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81823520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2007374544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97C543E-EA62-484B-A087-D7C9A5F5CA66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,15 +1492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O10" sqref="O10:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +1529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -507,7 +1547,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -539,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -571,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -603,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -635,7 +1675,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -667,7 +1707,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -699,7 +1739,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -730,8 +1770,18 @@
       <c r="J9">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2</v>
+      </c>
+      <c r="R9" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -762,8 +1812,20 @@
       <c r="J10">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O10" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="P10">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="Q10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R10">
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -794,8 +1856,20 @@
       <c r="J11">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="P11">
+        <v>0.7592592592592593</v>
+      </c>
+      <c r="Q11">
+        <v>0.68518518518518523</v>
+      </c>
+      <c r="R11">
+        <v>0.7407407407407407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -826,8 +1900,20 @@
       <c r="J12">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="O12" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="P12">
+        <v>0.42592592592592587</v>
+      </c>
+      <c r="Q12">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="R12">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -859,7 +1945,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -891,7 +1977,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -923,7 +2009,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1250,5 +2336,6 @@
     <mergeCell ref="H2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>